--- a/Data/Travel_Time_to_Work_Education_Income_Employment_csv/Graphs.xlsx
+++ b/Data/Travel_Time_to_Work_Education_Income_Employment_csv/Graphs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbmarks\Desktop\Geo572_Lab1\Data\Travel_Time_to_Work_Education_Income_Employment_csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbmarks/Documents/GitHub/Geo572_Lab1/Data/Travel_Time_to_Work_Education_Income_Employment_csv/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD1786-FD81-7D47-80C9-7FBDEC311C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14100"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,20 +21,35 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">[1]Detroit_Only!$CN$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">[1]Detroit_Only!$CN$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$71:$H$71</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$72:$H$72</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">[1]Detroit_Only!$CN$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">[1]Detroit_Only!$CN$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">[1]Detroit_Only!$CN$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$72</definedName>
+    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$72</definedName>
+    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$C$71:$H$71</definedName>
+    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$72:$H$72</definedName>
   </definedNames>
-  <calcPr calcId="162913" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Education</t>
   </si>
@@ -94,11 +110,32 @@
   <si>
     <t>National Average</t>
   </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Bridgeport, CT</t>
+  </si>
+  <si>
+    <t>Aurora, IL</t>
+  </si>
+  <si>
+    <t>Detroit, MI</t>
+  </si>
+  <si>
+    <t>Newark, NJ</t>
+  </si>
+  <si>
+    <t>Milwaukee, WI</t>
+  </si>
+  <si>
+    <t>Effective Tax Rate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,8 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,7 +230,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -540,7 +577,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -832,7 +868,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -899,39 +934,366 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Property Taxes on Median Valued Home for Largest City in Each State (2017)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Effective Tax Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$C$71:$H$71</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bridgeport, CT</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aurora, IL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Detroit, MI</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newark, NJ</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Milwaukee, WI</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>National Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$72:$H$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.8100000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7600000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1600000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5700000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4199999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.49E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DF34-0E4B-B68F-26A2E48172C1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1617369344"/>
+        <c:axId val="1617389168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1617369344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617389168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1617389168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617369344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
-        <cx:rich>
-          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr">
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Detroit Income</a:t>
-            </a:r>
-          </a:p>
-        </cx:rich>
+        <cx:txData>
+          <cx:v>Detroit Income</cx:v>
+        </cx:txData>
       </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US"/>
+            <a:t>Detroit Income</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
     </cx:title>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{B3FCA0B7-03B9-4CAD-8B34-8AF1DB55213F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>AH1PE001</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1042,6 +1404,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2536,6 +2938,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2553,7 +3458,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2583,7 +3494,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2615,7 +3532,13 @@
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Chart 3"/>
+            <xdr:cNvPr id="4" name="Chart 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -2638,6 +3561,10 @@
             </xdr:cNvSpPr>
           </xdr:nvSpPr>
           <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3375025" y="8869679"/>
+              <a:ext cx="7429499" cy="3989069"/>
+            </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
@@ -2664,6 +3591,42 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2825750</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1657350</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E5EF183-8BAD-6D4F-84C9-0726EBAABC70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -70669,31 +71632,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -70734,7 +71697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2">
         <f>SUM([1]Detroit_Only!$BO$2:$BO$880)</f>
         <v>433192</v>
@@ -70784,7 +71747,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C3">
         <f>C2/B2*100</f>
         <v>1.8167463849747916</v>
@@ -70830,7 +71793,7 @@
         <v>0.59673308833034766</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -70844,7 +71807,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -70864,7 +71827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -70884,6 +71847,52 @@
         <v>18</v>
       </c>
     </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>20</v>
+      </c>
+      <c r="C71" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72" s="1">
+        <v>3.8100000000000002E-2</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.7600000000000001E-2</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="F72" s="1">
+        <v>2.5700000000000001E-2</v>
+      </c>
+      <c r="G72" s="1">
+        <v>2.4199999999999999E-2</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1.49E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Data/Travel_Time_to_Work_Education_Income_Employment_csv/Graphs.xlsx
+++ b/Data/Travel_Time_to_Work_Education_Income_Employment_csv/Graphs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbmarks/Documents/GitHub/Geo572_Lab1/Data/Travel_Time_to_Work_Education_Income_Employment_csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joe\Documents\GitHub\Geo572_Lab1\Data\Travel_Time_to_Work_Education_Income_Employment_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFD1786-FD81-7D47-80C9-7FBDEC311C05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8653D342-4356-4883-98E5-51F9B5AA6C8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,18 +21,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">[1]Detroit_Only!$CN$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$71:$H$71</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$C$72:$H$72</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">[1]Detroit_Only!$CN$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">[1]Detroit_Only!$CN$1</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">[1]Detroit_Only!$CN$1</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$72</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">Sheet1!$B$72</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">Sheet1!$C$71:$H$71</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">Sheet1!$C$72:$H$72</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">[1]Detroit_Only!$CN$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">[1]Detroit_Only!$CN$2:$CN$880</definedName>
   </definedNames>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -42,6 +32,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -174,6 +165,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFC4C4C4"/>
+      <color rgb="FF4C4C4C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -539,10 +536,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="104"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="4"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -555,10 +552,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C4C4C4"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -567,13 +561,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Education</a:t>
+              <a:t>Education Level as Percentage of Population</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Level as Percentage of Population</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -592,10 +581,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C4C4C4"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -621,7 +607,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2">
+                <a:shade val="76000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -684,7 +672,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent2">
+                <a:tint val="77000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -782,10 +772,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C4C4C4"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -841,10 +828,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C4C4C4"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -883,10 +867,7 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C4C4C4"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -903,14 +884,13 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="4C4C4C">
+        <a:alpha val="99000"/>
+      </a:srgbClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="accent1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -921,7 +901,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:srgbClr val="C4C4C4"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -941,10 +925,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="107"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="7"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -957,10 +941,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C4C4C4"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -989,10 +970,7 @@
           <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:srgbClr val="C4C4C4"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1026,7 +1004,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent5"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1137,10 +1115,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C4C4C4"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1196,10 +1171,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="C4C4C4"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1227,7 +1199,7 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:srgbClr val="4C4C4C"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -1245,7 +1217,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:srgbClr val="C4C4C4"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1271,7 +1247,7 @@
     <cx:title pos="t" align="ctr" overlay="0">
       <cx:tx>
         <cx:txData>
-          <cx:v>Detroit Income</cx:v>
+          <cx:v>Median Household Income by Census Block Group</cx:v>
         </cx:txData>
       </cx:tx>
       <cx:txPr>
@@ -1283,7 +1259,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US"/>
-            <a:t>Detroit Income</a:t>
+            <a:t>Median Household Income by Census Block Group</a:t>
           </a:r>
         </a:p>
       </cx:txPr>
@@ -1305,10 +1281,66 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Income</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Income</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Number of Households</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Number of Households</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
         <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
@@ -1364,42 +1396,8 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
   <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1444,42 +1442,8 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -3562,8 +3526,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3375025" y="8869679"/>
-              <a:ext cx="7429499" cy="3989069"/>
+              <a:off x="3124200" y="8869679"/>
+              <a:ext cx="6648449" cy="3989069"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -71635,28 +71599,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C38" workbookViewId="0">
-      <selection activeCell="H72" sqref="H72"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="69" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -71697,7 +71661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2">
         <f>SUM([1]Detroit_Only!$BO$2:$BO$880)</f>
         <v>433192</v>
@@ -71747,7 +71711,7 @@
         <v>2585</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C3">
         <f>C2/B2*100</f>
         <v>1.8167463849747916</v>
@@ -71793,7 +71757,7 @@
         <v>0.59673308833034766</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -71807,7 +71771,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
@@ -71827,7 +71791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
@@ -71847,7 +71811,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>20</v>
       </c>
@@ -71870,7 +71834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>26</v>
       </c>
